--- a/1-Data_for_Model_Test/Results/r2.xlsx
+++ b/1-Data_for_Model_Test/Results/r2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maryam\Documents\GitHub\Neurofeedback-Based-BCI_r\1-Data_for_Model_Test\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348DBDF7-E74F-47CA-998C-737894F2832D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E8B8DC-FC9B-4263-9C81-C2DC15CC6983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>svm</t>
-  </si>
-  <si>
-    <t>rf</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>et_train (16 blocks)</t>
   </si>
@@ -58,13 +49,25 @@
   </si>
   <si>
     <t>sim_test (8 block)</t>
+  </si>
+  <si>
+    <t>svm%</t>
+  </si>
+  <si>
+    <t>rf%</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +76,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -159,49 +178,51 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -211,14 +232,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -240,11 +255,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="F16:G17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -537,106 +564,118 @@
     <col min="1" max="1" width="29.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="1:3" ht="25.9" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="13"/>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.7">
+      <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B4" s="1">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="23.65" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B5" s="3">
+        <v>54</v>
+      </c>
+      <c r="C5" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23.25" x14ac:dyDescent="0.7">
+      <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A2" s="10" t="s">
+      <c r="B6" s="1">
+        <v>59</v>
+      </c>
+      <c r="C6" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="23.65" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A7" s="9" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="3">
-        <v>66</v>
-      </c>
-      <c r="C2" s="4">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="23.65" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5">
-        <v>54</v>
-      </c>
-      <c r="C3" s="6">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3">
-        <v>59</v>
-      </c>
-      <c r="C4" s="4">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="23.65" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7">
-        <v>54</v>
-      </c>
-      <c r="C5" s="8">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <v>68</v>
-      </c>
-      <c r="C6" s="4">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="23.65" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A7" s="11" t="s">
-        <v>8</v>
       </c>
       <c r="B7" s="5">
         <v>54</v>
       </c>
       <c r="C7" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.7">
+      <c r="A8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>68</v>
+      </c>
+      <c r="C8" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="23.65" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>54</v>
+      </c>
+      <c r="C9" s="4">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3">
+    <row r="10" spans="1:3" ht="23.25" x14ac:dyDescent="0.7">
+      <c r="A10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
         <v>62</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C10" s="2">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="23.65" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7">
+    <row r="11" spans="1:3" ht="23.65" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5">
         <v>50</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C11" s="4">
         <v>50</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
